--- a/baidu_output.xlsx
+++ b/baidu_output.xlsx
@@ -15,96 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>超级大坏蛋</t>
+    <t>东港站</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/4667078.htm</t>
+    <t>https://baike.baidu.com/view/19171539.htm</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/historylist/%E8%B6%85%E7%BA%A7%E5%A4%A7%E5%9D%8F%E8%9B%8B/80843</t>
-  </si>
-  <si>
-    <t>2010-01-21</t>
-  </si>
-  <si>
-    <t>剧情电影,喜剧电影,电影作品,动画电影,电影,动画作品,动画,</t>
-  </si>
-  <si>
-    <t>时光匣子</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/view/6640101.htm</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/historylist/%E6%97%B6%E5%85%89%E5%8C%A3%E5%AD%90/7131867</t>
-  </si>
-  <si>
-    <t>2011-10-12</t>
-  </si>
-  <si>
-    <t>出版物,书籍,</t>
-  </si>
-  <si>
-    <t>2015年中国女子足球协会杯比赛</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/view/15982845.htm</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/historylist/2015%E5%B9%B4%E4%B8%AD%E5%9B%BD%E5%A5%B3%E5%AD%90%E8%B6%B3%E7%90%83%E5%8D%8F%E4%BC%9A%E6%9D%AF%E6%AF%94%E8%B5%9B/16796377</t>
-  </si>
-  <si>
-    <t>2015-02-14</t>
-  </si>
-  <si>
-    <t>组织机构,社会事件,社会,</t>
-  </si>
-  <si>
-    <t>美竹</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/view/852197.htm</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/historylist/%E7%BE%8E%E7%AB%B9/2592745</t>
-  </si>
-  <si>
-    <t>2007-03-21</t>
-  </si>
-  <si>
-    <t>科学百科生命科学分类,自然,生物物种,植物,</t>
-  </si>
-  <si>
-    <t>马炳泰</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/view/1123683.htm</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/historylist/%E9%A9%AC%E7%82%B3%E6%B3%B0/7096796</t>
-  </si>
-  <si>
-    <t>2007-08-27</t>
-  </si>
-  <si>
-    <t>政治人物,官员,人物,</t>
-  </si>
-  <si>
-    <t>俞佐庭</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/view/3008941.htm</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/historylist/%E4%BF%9E%E4%BD%90%E5%BA%AD/3854656</t>
-  </si>
-  <si>
-    <t>2009-11-20</t>
-  </si>
-  <si>
-    <t>行业人物,经济人物,人物,</t>
+    <t>None_Category!!!,</t>
   </si>
 </sst>
 </file>
@@ -453,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,239 +429,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1049940</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7392</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1453</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>611</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>323</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10876</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3867</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25011</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>529</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3485</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7400</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
